--- a/docs/Social Science Experiment Completed.xlsx
+++ b/docs/Social Science Experiment Completed.xlsx
@@ -209,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -298,6 +298,12 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -14185,18 +14191,18 @@
     </row>
     <row r="308">
       <c r="A308" s="31"/>
-      <c r="B308" s="20"/>
-      <c r="C308" s="20"/>
-      <c r="D308" s="20"/>
-      <c r="E308" s="20"/>
-      <c r="F308" s="20"/>
-      <c r="G308" s="20"/>
-      <c r="H308" s="20"/>
-      <c r="I308" s="20"/>
-      <c r="J308" s="20"/>
-      <c r="K308" s="20"/>
-      <c r="L308" s="20"/>
-      <c r="M308" s="20"/>
+      <c r="B308" s="32"/>
+      <c r="C308" s="32"/>
+      <c r="D308" s="32"/>
+      <c r="E308" s="32"/>
+      <c r="F308" s="32"/>
+      <c r="G308" s="32"/>
+      <c r="H308" s="32"/>
+      <c r="I308" s="32"/>
+      <c r="J308" s="32"/>
+      <c r="K308" s="32"/>
+      <c r="L308" s="32"/>
+      <c r="M308" s="32"/>
       <c r="N308" s="20"/>
       <c r="O308" s="20"/>
       <c r="P308" s="2"/>
@@ -14212,50 +14218,18 @@
       <c r="Z308" s="2"/>
     </row>
     <row r="309">
-      <c r="A309" s="31"/>
-      <c r="B309" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C309" s="33">
-        <f t="shared" ref="C309:L309" si="51">C307 / 1000</f>
-        <v>0.1</v>
-      </c>
-      <c r="D309" s="33">
-        <f t="shared" si="51"/>
-        <v>0.1</v>
-      </c>
-      <c r="E309" s="33">
-        <f t="shared" si="51"/>
-        <v>0.1</v>
-      </c>
-      <c r="F309" s="33">
-        <f t="shared" si="51"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G309" s="33">
-        <f t="shared" si="51"/>
-        <v>0.09</v>
-      </c>
-      <c r="H309" s="33">
-        <f t="shared" si="51"/>
-        <v>0.25</v>
-      </c>
-      <c r="I309" s="33">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="J309" s="33">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="K309" s="33">
-        <f t="shared" si="51"/>
-        <v>-1.233</v>
-      </c>
-      <c r="L309" s="33">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
+      <c r="A309" s="33"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="20"/>
+      <c r="D309" s="20"/>
+      <c r="E309" s="20"/>
+      <c r="F309" s="20"/>
+      <c r="G309" s="20"/>
+      <c r="H309" s="20"/>
+      <c r="I309" s="20"/>
+      <c r="J309" s="20"/>
+      <c r="K309" s="20"/>
+      <c r="L309" s="20"/>
       <c r="M309" s="20"/>
       <c r="N309" s="20"/>
       <c r="O309" s="20"/>
@@ -14272,18 +14246,50 @@
       <c r="Z309" s="2"/>
     </row>
     <row r="310">
-      <c r="A310" s="31"/>
-      <c r="B310" s="20"/>
-      <c r="C310" s="20"/>
-      <c r="D310" s="20"/>
-      <c r="E310" s="20"/>
-      <c r="F310" s="20"/>
-      <c r="G310" s="20"/>
-      <c r="H310" s="20"/>
-      <c r="I310" s="20"/>
-      <c r="J310" s="20"/>
-      <c r="K310" s="20"/>
-      <c r="L310" s="20"/>
+      <c r="A310" s="33"/>
+      <c r="B310" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" s="35">
+        <f t="shared" ref="C310:L310" si="51">C307 / 1000</f>
+        <v>0.1</v>
+      </c>
+      <c r="D310" s="35">
+        <f t="shared" si="51"/>
+        <v>0.1</v>
+      </c>
+      <c r="E310" s="35">
+        <f t="shared" si="51"/>
+        <v>0.1</v>
+      </c>
+      <c r="F310" s="35">
+        <f t="shared" si="51"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G310" s="35">
+        <f t="shared" si="51"/>
+        <v>0.09</v>
+      </c>
+      <c r="H310" s="35">
+        <f t="shared" si="51"/>
+        <v>0.25</v>
+      </c>
+      <c r="I310" s="35">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J310" s="35">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="K310" s="35">
+        <f t="shared" si="51"/>
+        <v>-1.233</v>
+      </c>
+      <c r="L310" s="35">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
       <c r="M310" s="20"/>
       <c r="N310" s="20"/>
       <c r="O310" s="20"/>
@@ -14300,7 +14306,7 @@
       <c r="Z310" s="2"/>
     </row>
     <row r="311">
-      <c r="A311" s="31"/>
+      <c r="A311" s="33"/>
       <c r="B311" s="20"/>
       <c r="C311" s="20"/>
       <c r="D311" s="20"/>
@@ -14328,7 +14334,7 @@
       <c r="Z311" s="2"/>
     </row>
     <row r="312">
-      <c r="A312" s="31"/>
+      <c r="A312" s="33"/>
       <c r="B312" s="20"/>
       <c r="C312" s="20"/>
       <c r="D312" s="20"/>
@@ -14356,7 +14362,7 @@
       <c r="Z312" s="2"/>
     </row>
     <row r="313">
-      <c r="A313" s="31"/>
+      <c r="A313" s="33"/>
       <c r="B313" s="20"/>
       <c r="C313" s="20"/>
       <c r="D313" s="20"/>
@@ -14384,7 +14390,7 @@
       <c r="Z313" s="2"/>
     </row>
     <row r="314">
-      <c r="A314" s="31"/>
+      <c r="A314" s="33"/>
       <c r="B314" s="20"/>
       <c r="C314" s="20"/>
       <c r="D314" s="20"/>
@@ -14412,7 +14418,7 @@
       <c r="Z314" s="2"/>
     </row>
     <row r="315">
-      <c r="A315" s="31"/>
+      <c r="A315" s="33"/>
       <c r="B315" s="20"/>
       <c r="C315" s="20"/>
       <c r="D315" s="20"/>
@@ -14425,8 +14431,8 @@
       <c r="K315" s="20"/>
       <c r="L315" s="20"/>
       <c r="M315" s="20"/>
-      <c r="N315" s="2"/>
-      <c r="O315" s="2"/>
+      <c r="N315" s="20"/>
+      <c r="O315" s="20"/>
       <c r="P315" s="2"/>
       <c r="Q315" s="2"/>
       <c r="R315" s="2"/>
@@ -14440,7 +14446,7 @@
       <c r="Z315" s="2"/>
     </row>
     <row r="316">
-      <c r="A316" s="31"/>
+      <c r="A316" s="33"/>
       <c r="B316" s="20"/>
       <c r="C316" s="20"/>
       <c r="D316" s="20"/>
@@ -14468,7 +14474,7 @@
       <c r="Z316" s="2"/>
     </row>
     <row r="317">
-      <c r="A317" s="31"/>
+      <c r="A317" s="33"/>
       <c r="B317" s="20"/>
       <c r="C317" s="20"/>
       <c r="D317" s="20"/>
@@ -14496,7 +14502,7 @@
       <c r="Z317" s="2"/>
     </row>
     <row r="318">
-      <c r="A318" s="31"/>
+      <c r="A318" s="33"/>
       <c r="B318" s="20"/>
       <c r="C318" s="20"/>
       <c r="D318" s="20"/>
@@ -14524,7 +14530,7 @@
       <c r="Z318" s="2"/>
     </row>
     <row r="319">
-      <c r="A319" s="31"/>
+      <c r="A319" s="33"/>
       <c r="B319" s="20"/>
       <c r="C319" s="20"/>
       <c r="D319" s="20"/>
@@ -14552,19 +14558,19 @@
       <c r="Z319" s="2"/>
     </row>
     <row r="320">
-      <c r="A320" s="1"/>
-      <c r="B320" s="1"/>
-      <c r="C320" s="2"/>
-      <c r="D320" s="2"/>
-      <c r="E320" s="2"/>
-      <c r="F320" s="2"/>
-      <c r="G320" s="2"/>
-      <c r="H320" s="2"/>
-      <c r="I320" s="2"/>
-      <c r="J320" s="2"/>
-      <c r="K320" s="2"/>
-      <c r="L320" s="2"/>
-      <c r="M320" s="2"/>
+      <c r="A320" s="33"/>
+      <c r="B320" s="20"/>
+      <c r="C320" s="20"/>
+      <c r="D320" s="20"/>
+      <c r="E320" s="20"/>
+      <c r="F320" s="20"/>
+      <c r="G320" s="20"/>
+      <c r="H320" s="20"/>
+      <c r="I320" s="20"/>
+      <c r="J320" s="20"/>
+      <c r="K320" s="20"/>
+      <c r="L320" s="20"/>
+      <c r="M320" s="20"/>
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
       <c r="P320" s="2"/>
@@ -25191,12 +25197,44 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
+    <row r="700">
+      <c r="A700" s="1"/>
+      <c r="B700" s="1"/>
+      <c r="C700" s="2"/>
+      <c r="D700" s="2"/>
+      <c r="E700" s="2"/>
+      <c r="F700" s="2"/>
+      <c r="G700" s="2"/>
+      <c r="H700" s="2"/>
+      <c r="I700" s="2"/>
+      <c r="J700" s="2"/>
+      <c r="K700" s="2"/>
+      <c r="L700" s="2"/>
+      <c r="M700" s="2"/>
+      <c r="N700" s="2"/>
+      <c r="O700" s="2"/>
+      <c r="P700" s="2"/>
+      <c r="Q700" s="2"/>
+      <c r="R700" s="2"/>
+      <c r="S700" s="2"/>
+      <c r="T700" s="2"/>
+      <c r="U700" s="2"/>
+      <c r="V700" s="2"/>
+      <c r="W700" s="2"/>
+      <c r="X700" s="2"/>
+      <c r="Y700" s="2"/>
+      <c r="Z700" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="M51:M55"/>
+    <mergeCell ref="M45:M49"/>
+    <mergeCell ref="M39:M43"/>
+    <mergeCell ref="M33:M37"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="M21:M25"/>
     <mergeCell ref="M15:M19"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="M27:M31"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A9:A13"/>
@@ -25204,13 +25242,6 @@
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="A27:A31"/>
     <mergeCell ref="A33:A37"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="M33:M37"/>
-    <mergeCell ref="M39:M43"/>
-    <mergeCell ref="M45:M49"/>
-    <mergeCell ref="M51:M55"/>
-    <mergeCell ref="M57:M61"/>
-    <mergeCell ref="M63:M67"/>
     <mergeCell ref="A39:A43"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="A51:A55"/>
@@ -25218,20 +25249,11 @@
     <mergeCell ref="A63:A67"/>
     <mergeCell ref="A69:A73"/>
     <mergeCell ref="A75:A79"/>
-    <mergeCell ref="M69:M73"/>
-    <mergeCell ref="M75:M79"/>
-    <mergeCell ref="M81:M85"/>
-    <mergeCell ref="M87:M91"/>
-    <mergeCell ref="M93:M97"/>
-    <mergeCell ref="M99:M103"/>
-    <mergeCell ref="M105:M109"/>
-    <mergeCell ref="M111:M115"/>
-    <mergeCell ref="M117:M121"/>
-    <mergeCell ref="M123:M127"/>
+    <mergeCell ref="M147:M151"/>
+    <mergeCell ref="M141:M145"/>
+    <mergeCell ref="M135:M139"/>
     <mergeCell ref="M129:M133"/>
-    <mergeCell ref="M135:M139"/>
-    <mergeCell ref="M141:M145"/>
-    <mergeCell ref="M147:M151"/>
+    <mergeCell ref="M27:M31"/>
     <mergeCell ref="A81:A85"/>
     <mergeCell ref="A87:A91"/>
     <mergeCell ref="A93:A97"/>
@@ -25270,20 +25292,27 @@
     <mergeCell ref="A291:A295"/>
     <mergeCell ref="A297:A301"/>
     <mergeCell ref="A303:A307"/>
+    <mergeCell ref="M111:M115"/>
+    <mergeCell ref="M105:M109"/>
+    <mergeCell ref="M99:M103"/>
+    <mergeCell ref="M93:M97"/>
+    <mergeCell ref="M87:M91"/>
+    <mergeCell ref="M81:M85"/>
+    <mergeCell ref="M75:M79"/>
+    <mergeCell ref="M69:M73"/>
+    <mergeCell ref="M63:M67"/>
+    <mergeCell ref="M57:M61"/>
+    <mergeCell ref="M159:M163"/>
     <mergeCell ref="M153:M157"/>
-    <mergeCell ref="M159:M163"/>
+    <mergeCell ref="M123:M127"/>
+    <mergeCell ref="M117:M121"/>
+    <mergeCell ref="M189:M193"/>
+    <mergeCell ref="M183:M187"/>
+    <mergeCell ref="M177:M181"/>
+    <mergeCell ref="M171:M175"/>
     <mergeCell ref="M165:M169"/>
-    <mergeCell ref="M171:M175"/>
-    <mergeCell ref="M177:M181"/>
-    <mergeCell ref="M183:M187"/>
-    <mergeCell ref="M189:M193"/>
+    <mergeCell ref="M201:M205"/>
     <mergeCell ref="M195:M199"/>
-    <mergeCell ref="M201:M205"/>
-    <mergeCell ref="M207:M211"/>
-    <mergeCell ref="M213:M217"/>
-    <mergeCell ref="M219:M223"/>
-    <mergeCell ref="M225:M229"/>
-    <mergeCell ref="M231:M235"/>
     <mergeCell ref="M237:M241"/>
     <mergeCell ref="M243:M247"/>
     <mergeCell ref="M249:M253"/>
@@ -25296,6 +25325,11 @@
     <mergeCell ref="M291:M295"/>
     <mergeCell ref="M297:M301"/>
     <mergeCell ref="M303:M307"/>
+    <mergeCell ref="M231:M235"/>
+    <mergeCell ref="M225:M229"/>
+    <mergeCell ref="M219:M223"/>
+    <mergeCell ref="M213:M217"/>
+    <mergeCell ref="M207:M211"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
